--- a/biology/Zoologie/Goniaster/Goniaster.xlsx
+++ b/biology/Zoologie/Goniaster/Goniaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniaster est un genre d'étoiles de mer de la famille des Goniasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En créant ce genre Louis Agassiz en donne la description suivante : « Corps pentagonal, bordé d'une double série de larges plaques qui portent des épines ; face supérieure noueuse »[3]. La tuberculation est cependant très variable, autant sur les plaques marginales que sur les dorsales : les spécimens peuvent être totalement lisses en presque entièrement hérissés de piquants coniques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En créant ce genre Louis Agassiz en donne la description suivante : « Corps pentagonal, bordé d'une double série de larges plaques qui portent des épines ; face supérieure noueuse ». La tuberculation est cependant très variable, autant sur les plaques marginales que sur les dorsales : les spécimens peuvent être totalement lisses en presque entièrement hérissés de piquants coniques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (26 novembre 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (26 novembre 2020) :
 Goniaster mulleri Heller, 1858 †
 Goniaster scrobiculatus Heller, 1858 †
 Goniaster tessellatus (Lamarck, 1816)</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>[Agassiz 1828] Louis Agassiz, « Prodrome d'une Monographie des Radiaires ou Echinodermes », Mémoires de la Société des Sciences naturelles de Neuchâtel, vol. 1,‎ 1836, p. 168-199 (ISSN 1420-2298 et 2297-3273, OCLC 6160007, DOI 10.5169/SEALS-100084, lire en ligne)</t>
         </is>
